--- a/data/input/employee_absence_data_21.xlsx
+++ b/data/input/employee_absence_data_21.xlsx
@@ -464,190 +464,190 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>72463</v>
+        <v>12318</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mirella Vasconcelos</t>
+          <t>Vicente Nascimento</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45087</v>
+        <v>45080</v>
       </c>
       <c r="G2" t="n">
-        <v>8182.48</v>
+        <v>4890.74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4928</v>
+        <v>64167</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gabrielly Melo</t>
+          <t>Apollo Teixeira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45094</v>
+        <v>45091</v>
       </c>
       <c r="G3" t="n">
-        <v>6627.17</v>
+        <v>4865.04</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>45803</v>
+        <v>19393</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Valentim Novais</t>
+          <t>Maria Clara Rocha</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="G4" t="n">
-        <v>6577.51</v>
+        <v>5399.82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>46313</v>
+        <v>44503</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dr. Eduardo Novaes</t>
+          <t>Sr. Danilo Vasconcelos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>8</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45095</v>
+        <v>45089</v>
       </c>
       <c r="G5" t="n">
-        <v>8899.57</v>
+        <v>4728.77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>54271</v>
+        <v>2409</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mariah da Conceição</t>
+          <t>Joaquim Nascimento</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45099</v>
+        <v>45103</v>
       </c>
       <c r="G6" t="n">
-        <v>9160.65</v>
+        <v>6512.64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>65352</v>
+        <v>55286</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Clara Macedo</t>
+          <t>Luísa Vieira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="G7" t="n">
-        <v>11099.73</v>
+        <v>5960.63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>91822</v>
+        <v>99111</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Farias</t>
+          <t>Yago Cirino</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -656,27 +656,27 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45092</v>
+        <v>45083</v>
       </c>
       <c r="G8" t="n">
-        <v>3582.36</v>
+        <v>2865.01</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>43954</v>
+        <v>26570</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Isaque Azevedo</t>
+          <t>Esther Pinto</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -685,71 +685,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45093</v>
+        <v>45104</v>
       </c>
       <c r="G9" t="n">
-        <v>6189.8</v>
+        <v>8679.780000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>81831</v>
+        <v>74015</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>José Pedro Moraes</t>
+          <t>Nicolas Camargo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45083</v>
+        <v>45097</v>
       </c>
       <c r="G10" t="n">
-        <v>6433.57</v>
+        <v>4430.13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>77207</v>
+        <v>69816</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lunna Borges</t>
+          <t>Kamilly Cavalcante</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45089</v>
+        <v>45100</v>
       </c>
       <c r="G11" t="n">
-        <v>9752.58</v>
+        <v>4112.75</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_21.xlsx
+++ b/data/input/employee_absence_data_21.xlsx
@@ -464,45 +464,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12318</v>
+        <v>94949</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vicente Nascimento</t>
+          <t>Nicolas da Cruz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45080</v>
+        <v>45105</v>
       </c>
       <c r="G2" t="n">
-        <v>4890.74</v>
+        <v>2843.11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>64167</v>
+        <v>44519</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Apollo Teixeira</t>
+          <t>Theo Lima</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -511,85 +511,85 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45091</v>
+        <v>45096</v>
       </c>
       <c r="G3" t="n">
-        <v>4865.04</v>
+        <v>4509.77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>19393</v>
+        <v>92271</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maria Clara Rocha</t>
+          <t>Diogo Carvalho</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45088</v>
+        <v>45094</v>
       </c>
       <c r="G4" t="n">
-        <v>5399.82</v>
+        <v>8016.64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>44503</v>
+        <v>82343</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sr. Danilo Vasconcelos</t>
+          <t>Luiza da Cunha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45089</v>
+        <v>45096</v>
       </c>
       <c r="G5" t="n">
-        <v>4728.77</v>
+        <v>9051.77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2409</v>
+        <v>20209</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Joaquim Nascimento</t>
+          <t>Gabriel da Cruz</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -598,138 +598,138 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45103</v>
+        <v>45078</v>
       </c>
       <c r="G6" t="n">
-        <v>6512.64</v>
+        <v>6698.88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>55286</v>
+        <v>92477</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Luísa Vieira</t>
+          <t>Maria Júlia Castro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45093</v>
+        <v>45079</v>
       </c>
       <c r="G7" t="n">
-        <v>5960.63</v>
+        <v>5014.56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>99111</v>
+        <v>93705</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Yago Cirino</t>
+          <t>Emilly Pastor</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45083</v>
+        <v>45087</v>
       </c>
       <c r="G8" t="n">
-        <v>2865.01</v>
+        <v>9181.950000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>26570</v>
+        <v>99241</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Esther Pinto</t>
+          <t>Rebeca da Costa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45104</v>
+        <v>45099</v>
       </c>
       <c r="G9" t="n">
-        <v>8679.780000000001</v>
+        <v>8836.65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>74015</v>
+        <v>85438</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nicolas Camargo</t>
+          <t>Laís Vasconcelos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45097</v>
+        <v>45084</v>
       </c>
       <c r="G10" t="n">
-        <v>4430.13</v>
+        <v>4257.46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>69816</v>
+        <v>22564</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Kamilly Cavalcante</t>
+          <t>Luara Araújo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45100</v>
+        <v>45092</v>
       </c>
       <c r="G11" t="n">
-        <v>4112.75</v>
+        <v>3225.29</v>
       </c>
     </row>
   </sheetData>
